--- a/data/trans_camb/P68-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P68-Habitat-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-0.1424207218972656</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.08653159872925309</v>
+        <v>0.08653159872924754</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.50018737875312</v>
+        <v>1.141131794549314</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.700961261263919</v>
+        <v>-5.81762315430795</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.973422090479435</v>
+        <v>-6.698332280425939</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-8.384411077427741</v>
+        <v>-7.815426548789768</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-12.32996356803388</v>
+        <v>-11.7780345910621</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-7.418293025596875</v>
+        <v>-7.570070254135398</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03169942206823775</v>
+        <v>-0.2818896023761832</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-5.124163545761314</v>
+        <v>-5.926590424452085</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.461028346151113</v>
+        <v>-5.049576543470721</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15.48524809928743</v>
+        <v>14.50583506891499</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.558376426615009</v>
+        <v>8.505165709298753</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.662070615234174</v>
+        <v>6.253927642809967</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.33472644677591</v>
+        <v>11.12146130328351</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.446340807606146</v>
+        <v>5.940782848855842</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.220295686384659</v>
+        <v>8.578801455087305</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>11.62659483611301</v>
+        <v>11.22480950284322</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.546677772909893</v>
+        <v>5.347152648125815</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.099616306023803</v>
+        <v>4.373720814246534</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.006803681328191663</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.004133762381835645</v>
+        <v>0.004133762381835379</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.05750402388852972</v>
+        <v>0.03570252594177586</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2072905502101111</v>
+        <v>-0.237758480281417</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2928769034754645</v>
+        <v>-0.2824780072360271</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3446982674387865</v>
+        <v>-0.3211912580571339</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4653052866081625</v>
+        <v>-0.4597155913686963</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2960735679648124</v>
+        <v>-0.2905040624928504</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.0008585651425889118</v>
+        <v>-0.01577447781288577</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2226457924039581</v>
+        <v>-0.2515511241282133</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1923623538003545</v>
+        <v>-0.2103954335427886</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.8480447775616355</v>
+        <v>0.8067287665720486</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5379509123139993</v>
+        <v>0.4540231398865561</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3716726661301013</v>
+        <v>0.3478935137011384</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6436388162615918</v>
+        <v>0.6656268528285226</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3745891026001198</v>
+        <v>0.363372201661385</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4569749425026048</v>
+        <v>0.5475295954497134</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6246149201663544</v>
+        <v>0.5980633356931692</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3114216095768256</v>
+        <v>0.280434226926282</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2849628521125964</v>
+        <v>0.2364253562993257</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>0.4555773312462569</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>4.468909582897091</v>
+        <v>4.468909582897093</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-1.218523046543721</v>
@@ -878,7 +878,7 @@
         <v>-1.935040327576926</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-1.692692601684098</v>
+        <v>-1.692692601684101</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-8.790949397937396</v>
+        <v>-9.511548517668391</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.278682681747513</v>
+        <v>-8.12882216001811</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-10.2737258408324</v>
+        <v>-10.98956176911505</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.360832642620212</v>
+        <v>-4.114341432278866</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-7.286758533915795</v>
+        <v>-6.755973886388178</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.613726602357382</v>
+        <v>-1.907663243190588</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-5.870573259692573</v>
+        <v>-5.499906446606881</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-6.420885282928982</v>
+        <v>-6.336193975374329</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-6.112505796873632</v>
+        <v>-5.91173925133142</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.313837760621842</v>
+        <v>1.867300967761996</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.108434790100212</v>
+        <v>3.59629269423351</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1514307423960915</v>
+        <v>-0.05408460553778052</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.10094923600455</v>
+        <v>10.73738857509771</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.301654466697256</v>
+        <v>7.384609910860748</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.55938742032866</v>
+        <v>10.42192890578423</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.218464368317714</v>
+        <v>3.316409022320516</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.59849576113657</v>
+        <v>2.892026342903156</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.930832504097046</v>
+        <v>2.418399674251393</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.02288003399668431</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2244378641603754</v>
+        <v>0.2244378641603755</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.05002772764551063</v>
@@ -983,7 +983,7 @@
         <v>-0.07944508785917716</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.06949525058620587</v>
+        <v>-0.06949525058620598</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3099348081226692</v>
+        <v>-0.3243884852146434</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2866286883578261</v>
+        <v>-0.2819051399364964</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3547950526943039</v>
+        <v>-0.3690821117003761</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1847738722856341</v>
+        <v>-0.1794403860905797</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3091977531949344</v>
+        <v>-0.292894041445238</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.07006569942966615</v>
+        <v>-0.08171901139740989</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2231496371838273</v>
+        <v>-0.2086160462908898</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2434734298382612</v>
+        <v>-0.2388440397826367</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2254986054825929</v>
+        <v>-0.2136698089752945</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.09833876988914395</v>
+        <v>0.07485878931552171</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1275284596601256</v>
+        <v>0.1511602530034129</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.006196878194688475</v>
+        <v>0.009845177223635792</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.5961227472842102</v>
+        <v>0.6663021530460671</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4332877258305558</v>
+        <v>0.4568812915448665</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6526784461314593</v>
+        <v>0.6559445258021962</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1428777957286623</v>
+        <v>0.14870481901882</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1182757848308132</v>
+        <v>0.1247811440092633</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.08504606635856378</v>
+        <v>0.1156638072781065</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>2.272362556303093</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.01107627014143298</v>
+        <v>0.01107627014142742</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.5412977765740123</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-8.304771517392613</v>
+        <v>-8.50588344131536</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.49170815874966</v>
+        <v>-3.413986674074023</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-15.84382441887589</v>
+        <v>-16.30830334717762</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.497910387699029</v>
+        <v>-5.94795553543309</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.15539394277438</v>
+        <v>-5.213826099874205</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-7.111299179288881</v>
+        <v>-7.80728697582657</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-5.714028915496001</v>
+        <v>-5.928863156367351</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.518959579148103</v>
+        <v>-2.630164809797324</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-10.59272274226783</v>
+        <v>-10.9616514574721</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.498538501030857</v>
+        <v>5.37324818616702</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.15177579385156</v>
+        <v>10.1462559529601</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-3.631825337777327</v>
+        <v>-3.829478529482797</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.673777894506</v>
+        <v>10.8385160318206</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>10.3293232016589</v>
+        <v>10.35508664249785</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.926689131437278</v>
+        <v>6.435073881120124</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.011355794324871</v>
+        <v>4.983931994565467</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>7.921064597510136</v>
+        <v>7.826108231289836</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-1.286843387805862</v>
+        <v>-1.823988704084512</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.1040710047430812</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0005072775729503652</v>
+        <v>0.000507277572950111</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.02141092133118103</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2755056071362746</v>
+        <v>-0.2844678714650122</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1104406725003554</v>
+        <v>-0.1061706398958939</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5369930035451232</v>
+        <v>-0.5381882375044547</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2500108300923867</v>
+        <v>-0.2300480048743143</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2007169051372698</v>
+        <v>-0.2026838343146252</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2713521636518381</v>
+        <v>-0.2956805159566688</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2098758086063026</v>
+        <v>-0.2129401280920943</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.09368917245008916</v>
+        <v>-0.09442072441111059</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3877069180227342</v>
+        <v>-0.3945131827476845</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2369166852043492</v>
+        <v>0.2326415817860804</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4167318099685478</v>
+        <v>0.4506407638786564</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.1647376973646594</v>
+        <v>-0.1444987923525148</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.6449957907498904</v>
+        <v>0.5980403512738044</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6139321447015724</v>
+        <v>0.5679446048259557</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3970315099683493</v>
+        <v>0.3625613968331358</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2202222500191223</v>
+        <v>0.2192779749899988</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3513760617569512</v>
+        <v>0.3489101667633912</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.05234270321003359</v>
+        <v>-0.0658529494436613</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-2.456234462784995</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1.12315988753719</v>
+        <v>1.123159887537187</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-3.767427156003561</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-10.26815049144752</v>
+        <v>-11.38096474232628</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-8.134580518282167</v>
+        <v>-8.21587379574903</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-8.964881159030195</v>
+        <v>-8.625340477672498</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-7.469246298946095</v>
+        <v>-8.127228571204755</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-9.103064883322723</v>
+        <v>-8.754859995731874</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.586775952728313</v>
+        <v>-4.517500022054436</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-8.150730342022547</v>
+        <v>-8.007721507746899</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-6.851781917708067</v>
+        <v>-6.53676634229185</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-5.198122664474367</v>
+        <v>-5.296346632359147</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01370821145361408</v>
+        <v>-0.5221167801752721</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.25921132243942</v>
+        <v>2.797475509557557</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.575863101927834</v>
+        <v>1.324805159785606</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.258780784223371</v>
+        <v>5.386509750433552</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.972178044610693</v>
+        <v>3.799659469997692</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.699095831672386</v>
+        <v>7.366376731773487</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.5267087753418183</v>
+        <v>0.326905750752005</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.304241914625865</v>
+        <v>1.340423368675449</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.192248998044001</v>
+        <v>2.39278249237665</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.1069923262199884</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04892427449630792</v>
+        <v>0.04892427449630779</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.1572475513426375</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3883291700180801</v>
+        <v>-0.4122173266240261</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3046777898636692</v>
+        <v>-0.3091922435190073</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3402990257949848</v>
+        <v>-0.3140754891316294</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2988397290708026</v>
+        <v>-0.3098911108905763</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3492574512257319</v>
+        <v>-0.3307321349912938</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1779784067407662</v>
+        <v>-0.1705684135358437</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3135879155297164</v>
+        <v>-0.3114979437342428</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.267210499186714</v>
+        <v>-0.2569597392891172</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1983808106070303</v>
+        <v>-0.2047776080766744</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.0005187027205083362</v>
+        <v>-0.011954426094111</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1475008932997848</v>
+        <v>0.1314939960039779</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.07073241259554142</v>
+        <v>0.07809456621728596</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2803197156306267</v>
+        <v>0.2717519959126223</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1971196070717994</v>
+        <v>0.2017762171001097</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3491472455120851</v>
+        <v>0.3784863893344382</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02376453353658325</v>
+        <v>0.01858056245971458</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.05981218801201231</v>
+        <v>0.06072860711886582</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1013451570544421</v>
+        <v>0.1077938780929581</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-0.1786296277052513</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-4.744447933474744</v>
+        <v>-4.744447933474741</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>1.191461897926829</v>
@@ -1511,7 +1511,7 @@
         <v>-0.5623598191194429</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>1.588665353963242</v>
+        <v>1.588665353963239</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-0.6228294292481229</v>
@@ -1520,7 +1520,7 @@
         <v>-0.5817337922000093</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-2.261303202538803</v>
+        <v>-2.261303202538806</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.498027604690147</v>
+        <v>-4.521685258020703</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.401208965938255</v>
+        <v>-3.3055572936002</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-7.685397270383568</v>
+        <v>-7.900614029270615</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.039050241301536</v>
+        <v>-2.467397369093301</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.631801759314878</v>
+        <v>-3.880461796596526</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.724629367250231</v>
+        <v>-1.622115839389784</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-3.109008055874723</v>
+        <v>-3.053078114973568</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.905153114258415</v>
+        <v>-2.825840752118401</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-4.35497379884845</v>
+        <v>-4.341904874323502</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.876998807748121</v>
+        <v>1.38433610368157</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.935212762055873</v>
+        <v>2.719145433407454</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-1.595789317248758</v>
+        <v>-1.979851936646794</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.974249893606736</v>
+        <v>5.097832329358718</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.104077296130781</v>
+        <v>3.172133949913142</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>4.52221109846598</v>
+        <v>4.555828461766763</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.847229051966027</v>
+        <v>1.838910909706842</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.726367782324941</v>
+        <v>2.008092309753096</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.009560716082666362</v>
+        <v>-0.06898602845561007</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.007154510181250977</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.1900255936292383</v>
+        <v>-0.1900255936292382</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.05509327969629094</v>
@@ -1616,7 +1616,7 @@
         <v>-0.02600355652045009</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.07345999468551957</v>
+        <v>0.07345999468551945</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.02617232223081001</v>
@@ -1625,7 +1625,7 @@
         <v>-0.02444541562589562</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.09502369878355672</v>
+        <v>-0.09502369878355683</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1747461198360314</v>
+        <v>-0.1737886595580145</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1272820001154015</v>
+        <v>-0.1262088022253282</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2943429557927717</v>
+        <v>-0.2956780996209284</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.12972714333697</v>
+        <v>-0.1052375136216352</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1924681704710624</v>
+        <v>-0.1668786603009624</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.07394088575127858</v>
+        <v>-0.06677395505462536</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1237619892310093</v>
+        <v>-0.1216909183188075</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1170552366923699</v>
+        <v>-0.113168376616832</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1753215036798544</v>
+        <v>-0.1754098792793797</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.0788603360235781</v>
+        <v>0.05771317461410497</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1253857827535876</v>
+        <v>0.1151041624099488</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.07010958090549885</v>
+        <v>-0.08304010193079538</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2444281489259325</v>
+        <v>0.2542705289009474</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1576505261511578</v>
+        <v>0.1623221037189918</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.227612330734175</v>
+        <v>0.2360677025719432</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.0802009219486345</v>
+        <v>0.07889675251956675</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.0810794233963229</v>
+        <v>0.08760509576861079</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.0004978657488548463</v>
+        <v>-0.003900328480874841</v>
       </c>
     </row>
     <row r="34">
